--- a/NATURAL STATE/NATURAL_STATE_V2_BOM.xlsx
+++ b/NATURAL STATE/NATURAL_STATE_V2_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Privat\Dropbox\Schematics\5_PCB_ORDERED\X_NATURAL_STATE_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Privat\Dropbox\Schematics\6_PCB_FINAL\NATURAL_STATE_V2\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E792DB4-02C2-4CB0-8672-F431393C2A0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CBF2B5-0649-454C-B988-442C5B19318B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="7530" xr2:uid="{AC8688CD-39EC-4B3C-96CF-D0EDDD19E9F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="170">
   <si>
     <t>Qty</t>
   </si>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>A500k</t>
+  </si>
+  <si>
+    <t>DEC1_OFST</t>
+  </si>
+  <si>
+    <t>DEC2_OFST</t>
+  </si>
+  <si>
+    <t>Trimmers</t>
+  </si>
+  <si>
+    <t>With these trimmers you can set exactly how short the decay times may be. You can use them to eliminate clicking noises that occur with very short decay envelopes.</t>
   </si>
 </sst>
 </file>
@@ -627,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -682,11 +694,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1003,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5755664B-5037-43D4-867A-43BF73B3E9F5}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,11 +1035,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1853,7 +1868,7 @@
       <c r="A44" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1873,7 +1888,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>161</v>
       </c>
@@ -1881,7 +1896,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>160</v>
       </c>
@@ -1889,7 +1904,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>163</v>
       </c>
@@ -1897,9 +1912,43 @@
         <v>31</v>
       </c>
     </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C54:D55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{973F7C77-7954-4DDF-A2F2-2E04E8246142}"/>
